--- a/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
+++ b/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BDD8D59-8DB2-475F-B02B-8DC6AADA64E2}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D679CFF6-4B8F-44BB-8B5E-FF9259EE5866}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MajorRegisterController" sheetId="2" r:id="rId1"/>
+    <sheet name="MajorsSearchGetController" sheetId="8" r:id="rId1"/>
+    <sheet name="MajorsGetController" sheetId="3" r:id="rId2"/>
+    <sheet name="MajorRegisterController" sheetId="2" r:id="rId3"/>
+    <sheet name="MajorSetController" sheetId="6" r:id="rId4"/>
+    <sheet name="MajorDeleteController" sheetId="7" r:id="rId5"/>
+    <sheet name="MajorGetController" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -97,6 +103,906 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B2FAD7-CBF5-4089-A156-A368EB93A98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1028700"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorsSearchGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED751BE7-4785-4740-AD5B-B75E71896A8E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B0B2FAD7-CBF5-4089-A156-A368EB93A98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="3848100"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/majors/search")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getMajors( session : HttpSession, redirectAttributes RedirectAttributes,  search @RequestParam  String)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD28A51-9C95-40BD-AC67-F555B79406FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ED751BE7-4785-4740-AD5B-B75E71896A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="2457450"/>
+          <a:ext cx="2733675" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : MajorService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822B201D-DF36-4DB1-A2CC-BF7C2A34D922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1028700"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorsGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F65AAC4-BD9B-4FE1-A19D-E8B9713BF231}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{822B201D-DF36-4DB1-A2CC-BF7C2A34D922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="3848100"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/majors")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getMajors( session : HttpSession, redirectAttributes RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343ACAF9-3C0D-4B9F-81FB-D120BF71BBEE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F65AAC4-BD9B-4FE1-A19D-E8B9713BF231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="2457450"/>
+          <a:ext cx="2733675" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : MajorService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -521,6 +1427,1826 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>service : MajorService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4ECAA4-35DB-4E27-9A70-644DEE69D28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorSetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E801CB-894D-42E8-B15A-768FA2A628EF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CB4ECAA4-35DB-4E27-9A70-644DEE69D28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2105025"/>
+          <a:ext cx="2733675" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : MajorService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0842006A-A9AB-4717-B7B1-D4DFB0E43DBE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06E801CB-894D-42E8-B15A-768FA2A628EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/major_update")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getMajor( session : HttpSession, redirectAttributes RedirectAttributes, id RequestParam int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715B1BC4-84F9-4826-BFA8-E308B842A5C6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0842006A-A9AB-4717-B7B1-D4DFB0E43DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="4086225"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@PostMapping("/manager/major_update")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>setMajor( session : HttpSession, form : MajorSetForm )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53513D98-64EF-4269-8380-7A5FC7751A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E486A3C4-7882-411E-814B-DCA94FBB9D85}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{53513D98-64EF-4269-8380-7A5FC7751A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2105025"/>
+          <a:ext cx="2733675" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : MajorService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57690DBF-6D7C-4858-B07E-1167907E6119}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E486A3C4-7882-411E-814B-DCA94FBB9D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/major_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteMajor( session : HttpSession, id RequestParam int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E8444D-1F05-4FD4-9522-B155C0DBA544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E27345-9C74-43A3-AD9A-0D030634CAAC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37E8444D-1F05-4FD4-9522-B155C0DBA544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2105025"/>
+          <a:ext cx="2733675" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : MajorService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA3F735-826B-44DB-BE19-F606138D2F29}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{62E27345-9C74-43A3-AD9A-0D030634CAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/major")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getMajor( session : HttpSession, redirectAttributes RedirectAttributes,  id RequestParam int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -846,10 +3572,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114528CA-A902-433C-AF18-803E54EF3AD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAD6FA3-7B26-471B-B3D8-8BC601EF4900}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A8633E-387F-40CD-BD90-4057C77280B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -858,4 +3614,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8829FDBE-9BFC-4C0E-89F2-C13862F39AFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E3BB5-DA31-4079-B9F6-134463708F63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B570C0A3-9704-4150-B1EB-E56BF2A1A796}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
+++ b/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D679CFF6-4B8F-44BB-8B5E-FF9259EE5866}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE85E3D3-4B5C-4E6E-8736-DD2A35D127A6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MajorsSearchGetController" sheetId="8" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="MajorRegisterController" sheetId="2" r:id="rId3"/>
     <sheet name="MajorSetController" sheetId="6" r:id="rId4"/>
     <sheet name="MajorDeleteController" sheetId="7" r:id="rId5"/>
-    <sheet name="MajorGetController" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="LoginController" sheetId="9" r:id="rId6"/>
+    <sheet name="MajorGetController" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2716,6 +2717,547 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E257E0-DC21-4CD6-80BF-BAC139C0C8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LoginController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1865E6-6D20-407A-8053-4F6E75FBC50A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B5E257E0-DC21-4CD6-80BF-BAC139C0C8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2105025"/>
+          <a:ext cx="2733675" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : ManagerService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0548C456-7320-4F3D-9F2B-1DF1CDED8122}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B1865E6-6D20-407A-8053-4F6E75FBC50A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@PostMapping("/manager/login")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>login( session : HttpSession, redirectAttributes RedirectAttributes, form LoginForm)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3575,7 +4117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114528CA-A902-433C-AF18-803E54EF3AD4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -3645,6 +4187,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C81B42-A39D-498F-89CA-4A546B1B72A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3659,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B570C0A3-9704-4150-B1EB-E56BF2A1A796}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
+++ b/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE85E3D3-4B5C-4E6E-8736-DD2A35D127A6}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri_sys\seiseki_manage_sys\class_diagram\controller\manager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E99D5F-37B0-4AC7-87C0-4CBA4ECB15D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MajorsSearchGetController" sheetId="8" r:id="rId1"/>
@@ -14,8 +19,9 @@
     <sheet name="MajorSetController" sheetId="6" r:id="rId4"/>
     <sheet name="MajorDeleteController" sheetId="7" r:id="rId5"/>
     <sheet name="LoginController" sheetId="9" r:id="rId6"/>
-    <sheet name="MajorGetController" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="LogoutController" sheetId="10" r:id="rId7"/>
+    <sheet name="MajorGetController" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,12 +45,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3258,6 +3271,377 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0548E866-B415-4DAA-9196-1321C78A083E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1066800"/>
+          <a:ext cx="12677775" cy="6562725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LogoutController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EDD3F2-7B50-413A-AC96-BE09F8CBA7C5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B1865E6-6D20-407A-8053-4F6E75FBC50A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3600450"/>
+          <a:ext cx="9020175" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/logout")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>logout( session : HttpSession, redirectAttributes RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4121,10 +4505,12 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4136,8 +4522,9 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4151,8 +4538,9 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4166,8 +4554,9 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4179,8 +4568,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4190,40 +4580,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C81B42-A39D-498F-89CA-4A546B1B72A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4BA11-74A8-4ECC-A81F-9ABD44A22F78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B570C0A3-9704-4150-B1EB-E56BF2A1A796}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
+++ b/class_diagram/controller/manager/成績管理sys_クラス図_controller_manager.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29607"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri_sys\seiseki_manage_sys\class_diagram\controller\manager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E99D5F-37B0-4AC7-87C0-4CBA4ECB15D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDCA860-A728-4C0A-80F8-7287F513A714}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MajorsSearchGetController" sheetId="8" r:id="rId1"/>
@@ -19,9 +14,8 @@
     <sheet name="MajorSetController" sheetId="6" r:id="rId4"/>
     <sheet name="MajorDeleteController" sheetId="7" r:id="rId5"/>
     <sheet name="LoginController" sheetId="9" r:id="rId6"/>
-    <sheet name="LogoutController" sheetId="10" r:id="rId7"/>
-    <sheet name="MajorGetController" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="MajorGetController" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,19 +39,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -633,15 +620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -659,7 +646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123950" y="3848100"/>
+          <a:off x="1238250" y="3962400"/>
           <a:ext cx="9020175" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1969,7 +1956,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getMajor( session : HttpSession, redirectAttributes RedirectAttributes, id RequestParam int )</a:t>
+            <a:t>getMajor( session : HttpSession, redirectAttributes RedirectAttributes, id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2166,7 +2153,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setMajor( session : HttpSession, form : MajorSetForm )</a:t>
+            <a:t>setMajor( session : HttpSession, form : MajorSetForm, id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2707,7 +2694,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>deleteMajor( session : HttpSession, id RequestParam int )</a:t>
+            <a:t>deleteMajor( session : HttpSession, id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3290,377 +3277,6 @@
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0548E866-B415-4DAA-9196-1321C78A083E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="1066800"/>
-          <a:ext cx="12677775" cy="6562725"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>LogoutController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EDD3F2-7B50-413A-AC96-BE09F8CBA7C5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B1865E6-6D20-407A-8053-4F6E75FBC50A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1085850" y="3600450"/>
-          <a:ext cx="9020175" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/manager/logout")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>logout( session : HttpSession, redirectAttributes RedirectAttributes)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E8444D-1F05-4FD4-9522-B155C0DBA544}"/>
             </a:ext>
           </a:extLst>
@@ -4160,7 +3776,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getMajor( session : HttpSession, redirectAttributes RedirectAttributes,  id RequestParam int )</a:t>
+            <a:t>getMajor( session : HttpSession, redirectAttributes RedirectAttributes,  id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4505,12 +4121,10 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4519,12 +4133,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4538,9 +4151,8 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4551,12 +4163,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4566,11 +4177,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E3BB5-DA31-4079-B9F6-134463708F63}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4580,59 +4192,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C81B42-A39D-498F-89CA-4A546B1B72A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4BA11-74A8-4ECC-A81F-9ABD44A22F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B570C0A3-9704-4150-B1EB-E56BF2A1A796}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>